--- a/TEST-18-03-2021.xlsx
+++ b/TEST-18-03-2021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">telefon</t>
   </si>
@@ -30,7 +30,7 @@
     <t xml:space="preserve">nume</t>
   </si>
   <si>
-    <t xml:space="preserve">indice</t>
+    <t xml:space="preserve">index</t>
   </si>
   <si>
     <t xml:space="preserve">0724136005</t>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t xml:space="preserve">DAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0700000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -158,13 +164,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
@@ -234,6 +240,17 @@
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -255,10 +272,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -281,7 +298,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
